--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3640473.607342528</v>
+        <v>3642234.137645314</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>118.1014820586771</v>
+        <v>227.9187527607135</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>19.06889707796913</v>
+        <v>32.33515922865877</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.43769434910101</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.33144790668261</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.2791855053265</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596166</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>2.875953774682731</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>125.2783963262418</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>197.1188673714096</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>199.3367224270701</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.549518586833733</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>184.3705921144093</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.24979976115232</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256469</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099045</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.06308666747492</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.7667673447328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74993283584316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>141.9273329298508</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.7872342765196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444154</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.905700988126</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.9263824507421</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988127</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444119</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.733841663478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428172</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.022230457616</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>135.0949745400652</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>261.5505590167096</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>134.1795292011422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="D2" t="n">
-        <v>419.733006062639</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="E2" t="n">
-        <v>153.355349495461</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.4309880222911</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="C3" t="n">
-        <v>258.9779587411641</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551308</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1017.258124012846</v>
+        <v>1022.19374300738</v>
       </c>
       <c r="T3" t="n">
-        <v>1017.258124012846</v>
+        <v>825.3846646388174</v>
       </c>
       <c r="U3" t="n">
-        <v>1017.258124012846</v>
+        <v>597.2488186756309</v>
       </c>
       <c r="V3" t="n">
-        <v>1017.258124012846</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="W3" t="n">
-        <v>1017.258124012846</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="X3" t="n">
-        <v>809.4066238073131</v>
+        <v>362.0967104438881</v>
       </c>
       <c r="Y3" t="n">
-        <v>601.6463250423592</v>
+        <v>362.0967104438881</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>957.4437075321852</v>
+        <v>757.9705692395831</v>
       </c>
       <c r="C4" t="n">
-        <v>788.5075246042783</v>
+        <v>757.9705692395831</v>
       </c>
       <c r="D4" t="n">
-        <v>638.3908851919425</v>
+        <v>607.8539298272474</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4530,10 +4530,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>978.7631483831133</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006025</v>
+        <v>757.9705692395831</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>553.8524235344764</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344764</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198.4551434940583</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C6" t="n">
-        <v>24.00211421293133</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846131</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="X6" t="n">
-        <v>574.4307792790803</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="Y6" t="n">
-        <v>366.6704805141264</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>671.8568305019771</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>502.9206475740702</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>855.7455529641967</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>853.5052953322169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8254949048037</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="C8" t="n">
-        <v>473.862977964392</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="D8" t="n">
-        <v>473.862977964392</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478448</v>
+        <v>129.3074613107948</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068557</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068557</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467174</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607429</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2556.977388032852</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2556.977388032852</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.396209558422</v>
+        <v>2374.3298390151</v>
       </c>
       <c r="V8" t="n">
-        <v>1972.333322214851</v>
+        <v>2043.26695167153</v>
       </c>
       <c r="W8" t="n">
-        <v>1619.564666944737</v>
+        <v>1690.498296401416</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.564666944737</v>
+        <v>1317.032538140336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.425334968925</v>
+        <v>926.8932061645241</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507236</v>
+        <v>113.884686828546</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018229</v>
+        <v>298.4816831796455</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353043</v>
+        <v>593.0176666131272</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209606</v>
+        <v>956.0841350874289</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682175</v>
+        <v>1343.168537559999</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.489543669564</v>
+        <v>1675.055347547388</v>
       </c>
       <c r="P9" t="n">
-        <v>2361.803043052727</v>
+        <v>2237.368846930551</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294914</v>
+        <v>461.2368923627296</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015845</v>
+        <v>292.3007094348227</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892488</v>
+        <v>142.184070022487</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380155</v>
+        <v>76.63468308380166</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368922</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904037</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.024936038239</v>
+        <v>1381.084657271477</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.607766001279</v>
+        <v>1091.667487234517</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6182151032613</v>
+        <v>863.6779363364994</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8256359597311</v>
+        <v>642.8853571929693</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816191</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>793.6995478537123</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>643.5829084413765</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>495.6698148589834</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611859</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>923.2869892719397</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.4944101284095</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362667</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,19 +6852,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.9192356072716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9830526793647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>665.866413267029</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>517.9533196846359</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>371.0633721867255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153195</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.3999281462899305</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.38618054173034</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348506</v>
+        <v>20.98618304348497</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6711151870881</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.922421112517583</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.59775584152678</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393065</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>10.32607348286601</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>24.63391537253455</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>31.34460909112667</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580798</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060693</v>
+        <v>507909.2320606923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>3.057122371344655e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101779</v>
+        <v>95270.2377910178</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447209</v>
+        <v>141668.8507447207</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26438,28 +26438,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.9762168059</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680586</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680591</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="P4" t="n">
         <v>11776.97621680586</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11776.97621680587</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215268.1676875672</v>
+        <v>-215268.1676875673</v>
       </c>
       <c r="C6" t="n">
-        <v>464819.8129036255</v>
+        <v>464819.8129036257</v>
       </c>
       <c r="D6" t="n">
-        <v>154737.95539259</v>
+        <v>154737.9553925893</v>
       </c>
       <c r="E6" t="n">
-        <v>145633.1523497433</v>
+        <v>145945.7936786651</v>
       </c>
       <c r="F6" t="n">
-        <v>653542.3844104364</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="G6" t="n">
-        <v>653542.3844104363</v>
+        <v>653855.0257393575</v>
       </c>
       <c r="H6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393576</v>
       </c>
       <c r="I6" t="n">
-        <v>653542.3844104361</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="J6" t="n">
-        <v>584543.229991322</v>
+        <v>584855.8713202432</v>
       </c>
       <c r="K6" t="n">
-        <v>653542.3844104357</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="L6" t="n">
-        <v>558272.1466194183</v>
+        <v>558584.7879483396</v>
       </c>
       <c r="M6" t="n">
-        <v>520824.4087149672</v>
+        <v>521137.0500438883</v>
       </c>
       <c r="N6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="O6" t="n">
-        <v>653542.3844104361</v>
+        <v>653855.0257393571</v>
       </c>
       <c r="P6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.0257393573</v>
       </c>
     </row>
   </sheetData>
@@ -26706,28 +26706,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>6.436047097567693e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.36886840263309e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.36886840263309e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.039426512964665e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9.751586511466202e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.751586511466202e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856963</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26928,16 +26928,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.712159998501537e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933053</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.27304077889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>288.7745636830343</v>
+        <v>178.9572929809979</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>128.0810383342296</v>
+        <v>114.81477618354</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.39428583283629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.3782074823545</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.4546561581541</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>187.4310348820948</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>144.569111789956</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>21.87153908595693</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>28.59078801762757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>19.24793092502472</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>119.9358985480069</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>66.67477457527633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164526866</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164528429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.37087597909425</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>56.37087597909525</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.630968240204123e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29526,10 +29526,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.039426512964665e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.630968240204123e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29799,10 +29799,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30036,10 +30036,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30696,13 +30696,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
         <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,37 +33262,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359108</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.13373767211372</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>63.30649658756595</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758579</v>
+        <v>186.4616124758581</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396987</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203659</v>
+        <v>567.9934337203662</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.767391202079</v>
+        <v>326.458498396198</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525775</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
